--- a/results.xlsx
+++ b/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="212">
   <si>
     <t>true_query</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t>I want to explore artists from the UK in the pop genre. Can you recommend 7?</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UK</t>
@@ -676,7 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -690,6 +687,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -712,35 +716,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1398,7 +1395,9 @@
       <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="O8" s="4" t="s">
         <v>47</v>
       </c>
@@ -1808,7 +1807,9 @@
       <c r="M18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="O18" s="4" t="s">
         <v>86</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>101</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>43</v>
@@ -1991,7 +1992,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>28</v>
@@ -2012,10 +2013,10 @@
         <v>17</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2023,7 +2024,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -2031,7 +2032,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -2054,18 +2055,18 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="M24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -2073,7 +2074,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -2096,7 +2097,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>55</v>
@@ -2107,7 +2108,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -2115,7 +2116,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -2138,18 +2139,18 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -2157,7 +2158,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>16</v>
@@ -2178,10 +2179,10 @@
         <v>17</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2189,7 +2190,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -2197,7 +2198,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
@@ -2218,20 +2219,22 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="M28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -2239,7 +2242,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -2260,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2271,7 +2274,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -2279,7 +2282,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
@@ -2302,18 +2305,18 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="M30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -2321,7 +2324,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
@@ -2344,18 +2347,18 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="M31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -2363,7 +2366,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>16</v>
@@ -2384,10 +2387,10 @@
         <v>17</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2395,7 +2398,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -2403,7 +2406,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>16</v>
@@ -2426,18 +2429,18 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="M33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -2445,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>22</v>
@@ -2466,20 +2469,22 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="M34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -2487,7 +2492,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>28</v>
@@ -2508,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2519,7 +2524,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -2527,7 +2532,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>16</v>
@@ -2561,7 +2566,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -2569,7 +2574,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>22</v>
@@ -2591,27 +2596,27 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>160</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>16</v>
@@ -2632,10 +2637,10 @@
         <v>17</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -2643,15 +2648,15 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>164</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>16</v>
@@ -2674,7 +2679,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>38</v>
@@ -2685,15 +2690,15 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>22</v>
@@ -2714,30 +2719,30 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="M40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="O40" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>28</v>
@@ -2758,10 +2763,10 @@
         <v>17</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2769,15 +2774,15 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>16</v>
@@ -2800,26 +2805,26 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="M42" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>180</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>22</v>
@@ -2842,26 +2847,26 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="22.5">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>16</v>
@@ -2882,10 +2887,10 @@
         <v>17</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -2893,15 +2898,15 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>188</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>16</v>
@@ -2924,7 +2929,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>34</v>
@@ -2935,15 +2940,15 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>22</v>
@@ -2973,21 +2978,21 @@
         <v>46</v>
       </c>
       <c r="N46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="O46" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>28</v>
@@ -3008,26 +3013,26 @@
         <v>23</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>16</v>
@@ -3050,7 +3055,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>90</v>
@@ -3061,15 +3066,15 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>22</v>
@@ -3092,26 +3097,26 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="M49" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>16</v>
@@ -3132,10 +3137,10 @@
         <v>17</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -3143,15 +3148,15 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <v>208</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>16</v>
@@ -3174,7 +3179,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>85</v>
@@ -3185,7 +3190,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
